--- a/carcass_exp_ddct.xlsx
+++ b/carcass_exp_ddct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,31 +963,31 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>17.24806746086349</v>
+        <v>16.88835593149212</v>
       </c>
       <c r="F12" t="n">
-        <v>18.38503603795516</v>
+        <v>18.1750287128342</v>
       </c>
       <c r="G12" t="n">
-        <v>16.70576495903344</v>
+        <v>15.78176450473163</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5423025018300507</v>
+        <v>-1.106591426760499</v>
       </c>
       <c r="I12" t="n">
-        <v>1.136968577091672</v>
+        <v>1.286672781342077</v>
       </c>
       <c r="J12" t="n">
-        <v>3.215857962030999</v>
+        <v>2.65156903710055</v>
       </c>
       <c r="K12" t="n">
-        <v>4.276203006855916</v>
+        <v>4.42590721110632</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1076292444661943</v>
+        <v>0.1591469002859662</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05161009130422786</v>
+        <v>0.04652315632780536</v>
       </c>
     </row>
     <row r="13">
@@ -996,43 +996,43 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B1-1</t>
+          <t>A8-4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>18.38642628653648</v>
+        <v>17.60777899023485</v>
       </c>
       <c r="F13" t="n">
-        <v>20.68237712716458</v>
+        <v>18.59504336307612</v>
       </c>
       <c r="G13" t="n">
-        <v>16.75248709738682</v>
+        <v>17.62976541333525</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.633939189149668</v>
+        <v>0.02198642310039745</v>
       </c>
       <c r="I13" t="n">
-        <v>2.295950840628095</v>
+        <v>0.9872643728412669</v>
       </c>
       <c r="J13" t="n">
-        <v>2.124221274711381</v>
+        <v>3.780146886961447</v>
       </c>
       <c r="K13" t="n">
-        <v>5.435185270392338</v>
+        <v>4.126498802605511</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2293747873056283</v>
+        <v>0.07278843787437128</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02311246154719949</v>
+        <v>0.05725324192672607</v>
       </c>
     </row>
     <row r="14">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1053,31 +1053,31 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>17.74585946622709</v>
+        <v>18.38642628653648</v>
       </c>
       <c r="F14" t="n">
-        <v>19.86690218435758</v>
+        <v>20.68237712716458</v>
       </c>
       <c r="G14" t="n">
-        <v>16.59861899364767</v>
+        <v>16.75248709738682</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.147240472579423</v>
+        <v>-1.633939189149668</v>
       </c>
       <c r="I14" t="n">
-        <v>2.121042718130493</v>
+        <v>2.295950840628095</v>
       </c>
       <c r="J14" t="n">
-        <v>2.610919991281627</v>
+        <v>2.124221274711381</v>
       </c>
       <c r="K14" t="n">
-        <v>5.260277147894737</v>
+        <v>5.435185270392338</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1636947557876251</v>
+        <v>0.2293747873056283</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02609148471473179</v>
+        <v>0.02311246154719949</v>
       </c>
     </row>
     <row r="15">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1098,31 +1098,31 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>17.31017883540795</v>
+        <v>17.74585946622709</v>
       </c>
       <c r="F15" t="n">
-        <v>17.837980179444</v>
+        <v>19.86690218435758</v>
       </c>
       <c r="G15" t="n">
-        <v>15.22931045446485</v>
+        <v>16.59861899364767</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.0808683809431</v>
+        <v>-1.147240472579423</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5278013440360496</v>
+        <v>2.121042718130493</v>
       </c>
       <c r="J15" t="n">
-        <v>1.677292082917949</v>
+        <v>2.610919991281627</v>
       </c>
       <c r="K15" t="n">
-        <v>3.667035773800293</v>
+        <v>5.260277147894737</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3126689617715915</v>
+        <v>0.1636947557876251</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07872492161929698</v>
+        <v>0.02609148471473179</v>
       </c>
     </row>
     <row r="16">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1143,31 +1143,31 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>17.55171073513073</v>
+        <v>17.31017883540795</v>
       </c>
       <c r="F16" t="n">
-        <v>20.66445423203388</v>
+        <v>17.837980179444</v>
       </c>
       <c r="G16" t="n">
-        <v>16.60903364844922</v>
+        <v>15.22931045446485</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9426770866815062</v>
+        <v>-2.0808683809431</v>
       </c>
       <c r="I16" t="n">
-        <v>3.112743496903157</v>
+        <v>0.5278013440360496</v>
       </c>
       <c r="J16" t="n">
-        <v>2.815483377179543</v>
+        <v>1.677292082917949</v>
       </c>
       <c r="K16" t="n">
-        <v>6.251977926667401</v>
+        <v>3.667035773800293</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1420545180966141</v>
+        <v>0.3126689617715915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01312100532799355</v>
+        <v>0.07872492161929698</v>
       </c>
     </row>
     <row r="17">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B4-1</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1185,34 +1185,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>17.34941234240835</v>
+        <v>17.55171073513073</v>
       </c>
       <c r="F17" t="n">
-        <v>18.33051719519619</v>
+        <v>20.66445423203388</v>
       </c>
       <c r="G17" t="n">
-        <v>16.40074687889739</v>
+        <v>16.60903364844922</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.9486654635109666</v>
+        <v>-0.9426770866815062</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9811048527878334</v>
+        <v>3.112743496903157</v>
       </c>
       <c r="J17" t="n">
-        <v>2.809495000350083</v>
+        <v>2.815483377179543</v>
       </c>
       <c r="K17" t="n">
-        <v>4.120339282552077</v>
+        <v>6.251977926667401</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1426453872061977</v>
+        <v>0.1420545180966141</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05749820456336147</v>
+        <v>0.01312100532799355</v>
       </c>
     </row>
     <row r="18">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B4-2</t>
+          <t>B4-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1233,31 +1233,31 @@
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>17.93679037539917</v>
+        <v>17.34941234240835</v>
       </c>
       <c r="F18" t="n">
-        <v>18.28262635561443</v>
+        <v>18.33051719519619</v>
       </c>
       <c r="G18" t="n">
-        <v>17.0821241895735</v>
+        <v>16.40074687889739</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.8546661858256712</v>
+        <v>-0.9486654635109666</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3458359802152629</v>
+        <v>0.9811048527878334</v>
       </c>
       <c r="J18" t="n">
-        <v>2.903494278035378</v>
+        <v>2.809495000350083</v>
       </c>
       <c r="K18" t="n">
-        <v>3.485070409979507</v>
+        <v>4.120339282552077</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1336475894842836</v>
+        <v>0.1426453872061977</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08930777500804639</v>
+        <v>0.05749820456336147</v>
       </c>
     </row>
     <row r="19">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B4-3</t>
+          <t>B4-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1278,31 +1278,31 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>17.36282296677136</v>
+        <v>17.93679037539917</v>
       </c>
       <c r="F19" t="n">
-        <v>17.55895984510537</v>
+        <v>18.28262635561443</v>
       </c>
       <c r="G19" t="n">
-        <v>18.22710217043876</v>
+        <v>17.0821241895735</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8642792036673974</v>
+        <v>-0.8546661858256712</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1961368783340056</v>
+        <v>0.3458359802152629</v>
       </c>
       <c r="J19" t="n">
-        <v>4.622439667528447</v>
+        <v>2.903494278035378</v>
       </c>
       <c r="K19" t="n">
-        <v>3.335371308098249</v>
+        <v>3.485070409979507</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04059822133341985</v>
+        <v>0.1336475894842836</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09907251538637669</v>
+        <v>0.08930777500804639</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B4-4</t>
+          <t>B4-3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1323,31 +1323,31 @@
         <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>17.97265831245647</v>
+        <v>17.36282296677136</v>
       </c>
       <c r="F20" t="n">
-        <v>17.58394590457306</v>
+        <v>17.55895984510537</v>
       </c>
       <c r="G20" t="n">
-        <v>15.29935109469895</v>
+        <v>18.22710217043876</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.673307217757525</v>
+        <v>0.8642792036673974</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.388712407883407</v>
+        <v>0.1961368783340056</v>
       </c>
       <c r="J20" t="n">
-        <v>1.084853246103524</v>
+        <v>4.622439667528447</v>
       </c>
       <c r="K20" t="n">
-        <v>2.750522021880837</v>
+        <v>3.335371308098249</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4714402213856911</v>
+        <v>0.04059822133341985</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1485971115656037</v>
+        <v>0.09907251538637669</v>
       </c>
     </row>
     <row r="21">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B8-1</t>
+          <t>B4-4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1365,34 +1365,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>17.66958502025132</v>
+        <v>17.97265831245647</v>
       </c>
       <c r="F21" t="n">
-        <v>16.19541762076719</v>
+        <v>17.58394590457306</v>
       </c>
       <c r="G21" t="n">
-        <v>17.96551646079959</v>
+        <v>15.29935109469895</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2959314405482765</v>
+        <v>-2.673307217757525</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.474167399484127</v>
+        <v>-0.388712407883407</v>
       </c>
       <c r="J21" t="n">
-        <v>4.054091904409326</v>
+        <v>1.084853246103524</v>
       </c>
       <c r="K21" t="n">
-        <v>1.665067030280117</v>
+        <v>2.750522021880837</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06020003331439654</v>
+        <v>0.4714402213856911</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3153297010662864</v>
+        <v>0.1485971115656037</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B8-2</t>
+          <t>B8-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1413,31 +1413,31 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>18.90834581056206</v>
+        <v>17.66958502025132</v>
       </c>
       <c r="F22" t="n">
-        <v>17.37463556183376</v>
+        <v>16.19541762076719</v>
       </c>
       <c r="G22" t="n">
-        <v>17.10756261539772</v>
+        <v>17.96551646079959</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.800783195164342</v>
+        <v>0.2959314405482765</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.533710248728308</v>
+        <v>-1.474167399484127</v>
       </c>
       <c r="J22" t="n">
-        <v>1.957377268696707</v>
+        <v>4.054091904409326</v>
       </c>
       <c r="K22" t="n">
-        <v>1.605524181035936</v>
+        <v>1.665067030280117</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2574961436545694</v>
+        <v>0.06020003331439654</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3286162706943692</v>
+        <v>0.3153297010662864</v>
       </c>
     </row>
     <row r="23">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B8-3</t>
+          <t>B8-2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1458,31 +1458,31 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>18.86587984685494</v>
+        <v>18.90834581056206</v>
       </c>
       <c r="F23" t="n">
-        <v>21.47526788842094</v>
+        <v>17.37463556183376</v>
       </c>
       <c r="G23" t="n">
-        <v>15.10771938299389</v>
+        <v>17.10756261539772</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.758160463861049</v>
+        <v>-1.800783195164342</v>
       </c>
       <c r="I23" t="n">
-        <v>2.609388041566</v>
+        <v>-1.533710248728308</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.957377268696707</v>
       </c>
       <c r="K23" t="n">
-        <v>5.748622471330243</v>
+        <v>1.605524181035936</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.2574961436545694</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01859911168813092</v>
+        <v>0.3286162706943692</v>
       </c>
     </row>
     <row r="24">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B8-4</t>
+          <t>B8-3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,31 +1503,31 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>16.83325780606062</v>
+        <v>18.86587984685494</v>
       </c>
       <c r="F24" t="n">
-        <v>16.47301327522812</v>
+        <v>21.47526788842094</v>
       </c>
       <c r="G24" t="n">
-        <v>15.34504763576894</v>
+        <v>15.10771938299389</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.488210170291683</v>
+        <v>-3.758160463861049</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3602445308325031</v>
+        <v>2.609388041566</v>
       </c>
       <c r="J24" t="n">
-        <v>2.269950293569366</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.778989898931741</v>
+        <v>5.748622471330243</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2073370298940908</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1456936698414098</v>
+        <v>0.01859911168813092</v>
       </c>
     </row>
     <row r="25">
@@ -1536,43 +1536,43 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>C1-1</t>
+          <t>B8-4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>18.769417176592</v>
+        <v>16.83325780606062</v>
       </c>
       <c r="F25" t="n">
-        <v>17.174600105952</v>
+        <v>16.47301327522812</v>
       </c>
       <c r="G25" t="n">
-        <v>16.94315712199284</v>
+        <v>15.34504763576894</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.82626005459916</v>
+        <v>-1.488210170291683</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.594817070639998</v>
+        <v>-0.3602445308325031</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931900409261889</v>
+        <v>2.269950293569366</v>
       </c>
       <c r="K25" t="n">
-        <v>1.544417359124246</v>
+        <v>2.778989898931741</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2620837101656994</v>
+        <v>0.2073370298940908</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3428341288695534</v>
+        <v>0.1456936698414098</v>
       </c>
     </row>
     <row r="26">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>C1-2</t>
+          <t>C1-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1593,31 +1593,31 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>19.01487392985588</v>
+        <v>18.769417176592</v>
       </c>
       <c r="F26" t="n">
-        <v>17.55570590295049</v>
+        <v>17.174600105952</v>
       </c>
       <c r="G26" t="n">
-        <v>17.50138548908985</v>
+        <v>16.94315712199284</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.513488440766036</v>
+        <v>-1.82626005459916</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.459168026905395</v>
+        <v>-1.594817070639998</v>
       </c>
       <c r="J26" t="n">
-        <v>2.244672023095013</v>
+        <v>1.931900409261889</v>
       </c>
       <c r="K26" t="n">
-        <v>1.680066402858849</v>
+        <v>1.544417359124246</v>
       </c>
       <c r="L26" t="n">
-        <v>0.211001911967433</v>
+        <v>0.2620837101656994</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3120682733426583</v>
+        <v>0.3428341288695534</v>
       </c>
     </row>
     <row r="27">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>C1-3</t>
+          <t>C1-2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1638,31 +1638,31 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>19.78894482611168</v>
+        <v>19.01487392985588</v>
       </c>
       <c r="F27" t="n">
-        <v>17.63525661847231</v>
+        <v>17.55570590295049</v>
       </c>
       <c r="G27" t="n">
-        <v>18.1842055739066</v>
+        <v>17.50138548908985</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.604739252205075</v>
+        <v>-1.513488440766036</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.15368820763937</v>
+        <v>-1.459168026905395</v>
       </c>
       <c r="J27" t="n">
-        <v>2.153421211655974</v>
+        <v>2.244672023095013</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9855462221248743</v>
+        <v>1.680066402858849</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2247789416201739</v>
+        <v>0.211001911967433</v>
       </c>
       <c r="M27" t="n">
-        <v>0.505034474764043</v>
+        <v>0.3120682733426583</v>
       </c>
     </row>
     <row r="28">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C1-4</t>
+          <t>C1-3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1683,31 +1683,31 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>18.97817780845604</v>
+        <v>19.78894482611168</v>
       </c>
       <c r="F28" t="n">
-        <v>17.50820810249395</v>
+        <v>17.63525661847231</v>
       </c>
       <c r="G28" t="n">
-        <v>16.37534589217913</v>
+        <v>18.1842055739066</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.602831916276909</v>
+        <v>-1.604739252205075</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.46996970596209</v>
+        <v>-2.15368820763937</v>
       </c>
       <c r="J28" t="n">
-        <v>1.155328547584141</v>
+        <v>2.153421211655974</v>
       </c>
       <c r="K28" t="n">
-        <v>1.669264723802154</v>
+        <v>0.9855462221248743</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4489639314206106</v>
+        <v>0.2247789416201739</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3144135451202265</v>
+        <v>0.505034474764043</v>
       </c>
     </row>
     <row r="29">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C4-1</t>
+          <t>C1-4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1725,34 +1725,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>18.26855748409709</v>
+        <v>18.97817780845604</v>
       </c>
       <c r="F29" t="n">
-        <v>18.27558627954664</v>
+        <v>17.50820810249395</v>
       </c>
       <c r="G29" t="n">
-        <v>15.7788307513841</v>
+        <v>16.37534589217913</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.489726732712993</v>
+        <v>-2.602831916276909</v>
       </c>
       <c r="I29" t="n">
-        <v>0.007028795449549818</v>
+        <v>-1.46996970596209</v>
       </c>
       <c r="J29" t="n">
-        <v>1.268433731148056</v>
+        <v>1.155328547584141</v>
       </c>
       <c r="K29" t="n">
-        <v>3.146263225213794</v>
+        <v>1.669264723802154</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4151101947531894</v>
+        <v>0.4489639314206106</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1129484810825295</v>
+        <v>0.3144135451202265</v>
       </c>
     </row>
     <row r="30">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C4-2</t>
+          <t>C4-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1773,31 +1773,31 @@
         <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>17.11706284917836</v>
+        <v>18.26855748409709</v>
       </c>
       <c r="F30" t="n">
-        <v>15.99253070819952</v>
+        <v>18.27558627954664</v>
       </c>
       <c r="G30" t="n">
-        <v>15.52519668615271</v>
+        <v>15.7788307513841</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.591866163025648</v>
+        <v>-2.489726732712993</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.124532140978841</v>
+        <v>0.007028795449549818</v>
       </c>
       <c r="J30" t="n">
-        <v>2.166294300835402</v>
+        <v>1.268433731148056</v>
       </c>
       <c r="K30" t="n">
-        <v>2.014702288785402</v>
+        <v>3.146263225213794</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2227821731577544</v>
+        <v>0.4151101947531894</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2474652251871792</v>
+        <v>0.1129484810825295</v>
       </c>
     </row>
     <row r="31">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C4-3</t>
+          <t>C4-2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1818,31 +1818,31 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>17.86864910741724</v>
+        <v>17.11706284917836</v>
       </c>
       <c r="F31" t="n">
-        <v>16.29025689271505</v>
+        <v>15.99253070819952</v>
       </c>
       <c r="G31" t="n">
-        <v>16.53814039985295</v>
+        <v>15.52519668615271</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.330508707564288</v>
+        <v>-1.591866163025648</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.578392214702188</v>
+        <v>-1.124532140978841</v>
       </c>
       <c r="J31" t="n">
-        <v>2.427651756296761</v>
+        <v>2.166294300835402</v>
       </c>
       <c r="K31" t="n">
-        <v>1.560842215062056</v>
+        <v>2.014702288785402</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1858677331625176</v>
+        <v>0.2227821731577544</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3389531503637085</v>
+        <v>0.2474652251871792</v>
       </c>
     </row>
     <row r="32">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C4-4</t>
+          <t>C4-3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1863,31 +1863,31 @@
         <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>17.72770082027415</v>
+        <v>17.86864910741724</v>
       </c>
       <c r="F32" t="n">
-        <v>15.86185486552177</v>
+        <v>16.29025689271505</v>
       </c>
       <c r="G32" t="n">
-        <v>15.88401092446851</v>
+        <v>16.53814039985295</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.843689895805639</v>
+        <v>-1.330508707564288</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.865845954752382</v>
+        <v>-1.578392214702188</v>
       </c>
       <c r="J32" t="n">
-        <v>1.91447056805541</v>
+        <v>2.427651756296761</v>
       </c>
       <c r="K32" t="n">
-        <v>1.273388475011862</v>
+        <v>1.560842215062056</v>
       </c>
       <c r="L32" t="n">
-        <v>0.265269264474268</v>
+        <v>0.1858677331625176</v>
       </c>
       <c r="M32" t="n">
-        <v>0.413686999393334</v>
+        <v>0.3389531503637085</v>
       </c>
     </row>
     <row r="33">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C8-1</t>
+          <t>C4-4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1905,34 +1905,34 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>17.97371055920968</v>
+        <v>17.72770082027415</v>
       </c>
       <c r="F33" t="n">
-        <v>16.2333897794457</v>
+        <v>15.86185486552177</v>
       </c>
       <c r="G33" t="n">
-        <v>15.668660307282</v>
+        <v>15.88401092446851</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.305050251927682</v>
+        <v>-1.843689895805639</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.740320779763984</v>
+        <v>-1.865845954752382</v>
       </c>
       <c r="J33" t="n">
-        <v>1.453110211933367</v>
+        <v>1.91447056805541</v>
       </c>
       <c r="K33" t="n">
-        <v>1.39891365000026</v>
+        <v>1.273388475011862</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3652331922782096</v>
+        <v>0.265269264474268</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3792145828929663</v>
+        <v>0.413686999393334</v>
       </c>
     </row>
     <row r="34">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C8-2</t>
+          <t>C8-1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1953,31 +1953,31 @@
         <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>18.24863826932208</v>
+        <v>17.97371055920968</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67352602156995</v>
+        <v>16.2333897794457</v>
       </c>
       <c r="G34" t="n">
-        <v>16.0382745037311</v>
+        <v>15.668660307282</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.210363765590984</v>
+        <v>-2.305050251927682</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.575112247752131</v>
+        <v>-1.740320779763984</v>
       </c>
       <c r="J34" t="n">
-        <v>1.547796698270066</v>
+        <v>1.453110211933367</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5641221820121132</v>
+        <v>1.39891365000026</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3420320210552593</v>
+        <v>0.3652331922782096</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6763668315132378</v>
+        <v>0.3792145828929663</v>
       </c>
     </row>
     <row r="35">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C8-3</t>
+          <t>C8-2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1998,31 +1998,31 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>18.3815278977252</v>
+        <v>18.24863826932208</v>
       </c>
       <c r="F35" t="n">
-        <v>17.49905313462929</v>
+        <v>15.67352602156995</v>
       </c>
       <c r="G35" t="n">
-        <v>16.89086341067746</v>
+        <v>16.0382745037311</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.490664487047741</v>
+        <v>-2.210363765590984</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.8824747630959138</v>
+        <v>-2.575112247752131</v>
       </c>
       <c r="J35" t="n">
-        <v>2.267495976813308</v>
+        <v>1.547796698270066</v>
       </c>
       <c r="K35" t="n">
-        <v>2.25675966666833</v>
+        <v>0.5641221820121132</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2076900524136789</v>
+        <v>0.3420320210552593</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2092414145356388</v>
+        <v>0.6763668315132378</v>
       </c>
     </row>
     <row r="36">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C8-4</t>
+          <t>C8-3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2043,31 +2043,31 @@
         <v>8</v>
       </c>
       <c r="E36" t="n">
-        <v>18.61277481169285</v>
+        <v>18.3815278977252</v>
       </c>
       <c r="F36" t="n">
-        <v>15.79908898994116</v>
+        <v>17.49905313462929</v>
       </c>
       <c r="G36" t="n">
-        <v>18.43243537097235</v>
+        <v>16.89086341067746</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1803394407205019</v>
+        <v>-1.490664487047741</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.813685821751692</v>
+        <v>-0.8824747630959138</v>
       </c>
       <c r="J36" t="n">
-        <v>3.577821023140547</v>
+        <v>2.267495976813308</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3255486080125518</v>
+        <v>2.25675966666833</v>
       </c>
       <c r="L36" t="n">
-        <v>0.08374686391760854</v>
+        <v>0.2076900524136789</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7979948782555004</v>
+        <v>0.2092414145356388</v>
       </c>
     </row>
     <row r="37">
@@ -2076,43 +2076,43 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D1-1</t>
+          <t>C8-4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>19.62853248683713</v>
+        <v>18.61277481169285</v>
       </c>
       <c r="F37" t="n">
-        <v>18.87815493958332</v>
+        <v>15.79908898994116</v>
       </c>
       <c r="G37" t="n">
-        <v>16.78164439112065</v>
+        <v>18.43243537097235</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.84688809571648</v>
+        <v>-0.1803394407205019</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.7503775472538123</v>
+        <v>-2.813685821751692</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9112723681445694</v>
+        <v>3.577821023140547</v>
       </c>
       <c r="K37" t="n">
-        <v>2.388856882510431</v>
+        <v>0.3255486080125518</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5317159436730832</v>
+        <v>0.08374686391760854</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1909336272048734</v>
+        <v>0.7979948782555004</v>
       </c>
     </row>
     <row r="38">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D1-2</t>
+          <t>D1-1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2133,31 +2133,31 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>18.90292050781684</v>
+        <v>19.62853248683713</v>
       </c>
       <c r="F38" t="n">
-        <v>17.40243744501315</v>
+        <v>18.87815493958332</v>
       </c>
       <c r="G38" t="n">
-        <v>16.15045149889485</v>
+        <v>16.78164439112065</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.752469008921995</v>
+        <v>-2.84688809571648</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.500483062803692</v>
+        <v>-0.7503775472538123</v>
       </c>
       <c r="J38" t="n">
-        <v>1.005691454939054</v>
+        <v>0.9112723681445694</v>
       </c>
       <c r="K38" t="n">
-        <v>1.638751366960552</v>
+        <v>2.388856882510431</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4980313777041911</v>
+        <v>0.5317159436730832</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3211342915345428</v>
+        <v>0.1909336272048734</v>
       </c>
     </row>
     <row r="39">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D1-3</t>
+          <t>D1-2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2178,31 +2178,31 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>19.16995956560108</v>
+        <v>18.90292050781684</v>
       </c>
       <c r="F39" t="n">
-        <v>19.21993432004555</v>
+        <v>17.40243744501315</v>
       </c>
       <c r="G39" t="n">
-        <v>15.99060730519863</v>
+        <v>16.15045149889485</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.179352260402451</v>
+        <v>-2.752469008921995</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04997475444447019</v>
+        <v>-1.500483062803692</v>
       </c>
       <c r="J39" t="n">
-        <v>0.578808203458598</v>
+        <v>1.005691454939054</v>
       </c>
       <c r="K39" t="n">
-        <v>3.189209184208714</v>
+        <v>1.638751366960552</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6695166302776464</v>
+        <v>0.4980313777041911</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1096357957481369</v>
+        <v>0.3211342915345428</v>
       </c>
     </row>
     <row r="40">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D1-4</t>
+          <t>D1-3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2223,31 +2223,31 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>19.23090042998518</v>
+        <v>19.16995956560108</v>
       </c>
       <c r="F40" t="n">
-        <v>17.79010980011102</v>
+        <v>19.21993432004555</v>
       </c>
       <c r="G40" t="n">
-        <v>16.61244460670306</v>
+        <v>15.99060730519863</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.618455823282122</v>
+        <v>-3.179352260402451</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.440790629874162</v>
+        <v>0.04997475444447019</v>
       </c>
       <c r="J40" t="n">
-        <v>1.139704640578927</v>
+        <v>0.578808203458598</v>
       </c>
       <c r="K40" t="n">
-        <v>1.698443799890082</v>
+        <v>3.189209184208714</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4538524842551347</v>
+        <v>0.6695166302776464</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3081182838577357</v>
+        <v>0.1096357957481369</v>
       </c>
     </row>
     <row r="41">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D4-1</t>
+          <t>D1-4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2265,34 +2265,34 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>19.63487685709634</v>
+        <v>19.23090042998518</v>
       </c>
       <c r="F41" t="n">
-        <v>17.28227381264924</v>
+        <v>17.79010980011102</v>
       </c>
       <c r="G41" t="n">
-        <v>18.58838303054786</v>
+        <v>16.61244460670306</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.046493826548488</v>
+        <v>-2.618455823282122</v>
       </c>
       <c r="I41" t="n">
-        <v>-2.352603044447104</v>
+        <v>-1.440790629874162</v>
       </c>
       <c r="J41" t="n">
-        <v>2.711666637312561</v>
+        <v>1.139704640578927</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7866313853171398</v>
+        <v>1.698443799890082</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1526535835816536</v>
+        <v>0.4538524842551347</v>
       </c>
       <c r="M41" t="n">
-        <v>0.579696071829248</v>
+        <v>0.3081182838577357</v>
       </c>
     </row>
     <row r="42">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D4-2</t>
+          <t>D4-1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2313,31 +2313,31 @@
         <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>19.37864660029022</v>
+        <v>19.63487685709634</v>
       </c>
       <c r="F42" t="n">
-        <v>17.57344679037134</v>
+        <v>17.28227381264924</v>
       </c>
       <c r="G42" t="n">
-        <v>16.54660180937823</v>
+        <v>18.58838303054786</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.832044790911983</v>
+        <v>-1.046493826548488</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.805199809918882</v>
+        <v>-2.352603044447104</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9261156729490665</v>
+        <v>2.711666637312561</v>
       </c>
       <c r="K42" t="n">
-        <v>1.334034619845362</v>
+        <v>0.7866313853171398</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5262733799168248</v>
+        <v>0.1526535835816536</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3966574030332071</v>
+        <v>0.579696071829248</v>
       </c>
     </row>
     <row r="43">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D4-3</t>
+          <t>D4-2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2358,31 +2358,31 @@
         <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>20.10128403490188</v>
+        <v>19.37864660029022</v>
       </c>
       <c r="F43" t="n">
-        <v>18.12277193380361</v>
+        <v>17.57344679037134</v>
       </c>
       <c r="G43" t="n">
-        <v>18.43515101456446</v>
+        <v>16.54660180937823</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.666133020337416</v>
+        <v>-2.832044790911983</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.978512101098268</v>
+        <v>-1.805199809918882</v>
       </c>
       <c r="J43" t="n">
-        <v>2.092027443523634</v>
+        <v>0.9261156729490665</v>
       </c>
       <c r="K43" t="n">
-        <v>1.160722328665976</v>
+        <v>1.334034619845362</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2345508373626407</v>
+        <v>0.5262733799168248</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4472885309346903</v>
+        <v>0.3966574030332071</v>
       </c>
     </row>
     <row r="44">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D4-4</t>
+          <t>D4-3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2403,31 +2403,31 @@
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>20.66713383867295</v>
+        <v>20.10128403490188</v>
       </c>
       <c r="F44" t="n">
-        <v>17.52789940890871</v>
+        <v>18.12277193380361</v>
       </c>
       <c r="G44" t="n">
-        <v>19.02877157562261</v>
+        <v>18.43515101456446</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.63836226305034</v>
+        <v>-1.666133020337416</v>
       </c>
       <c r="I44" t="n">
-        <v>-3.139234429764244</v>
+        <v>-1.978512101098268</v>
       </c>
       <c r="J44" t="n">
-        <v>2.11979820081071</v>
+        <v>2.092027443523634</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.160722328665976</v>
       </c>
       <c r="L44" t="n">
-        <v>0.230079093072781</v>
+        <v>0.2345508373626407</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0.4472885309346903</v>
       </c>
     </row>
     <row r="45">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D8-1</t>
+          <t>D4-4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2445,34 +2445,34 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>19.81598083572514</v>
+        <v>20.66713383867295</v>
       </c>
       <c r="F45" t="n">
-        <v>20.12690396439272</v>
+        <v>17.52789940890871</v>
       </c>
       <c r="G45" t="n">
-        <v>18.67085525145394</v>
+        <v>19.02877157562261</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.145125584271192</v>
+        <v>-1.63836226305034</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3109231286675893</v>
+        <v>-3.139234429764244</v>
       </c>
       <c r="J45" t="n">
-        <v>2.613034879589858</v>
+        <v>2.11979820081071</v>
       </c>
       <c r="K45" t="n">
-        <v>3.450157558431833</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1634549667193676</v>
+        <v>0.230079093072781</v>
       </c>
       <c r="M45" t="n">
-        <v>0.09149536313411689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D8-2</t>
+          <t>D8-1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2493,31 +2493,31 @@
         <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>18.56728761050937</v>
+        <v>19.81598083572514</v>
       </c>
       <c r="F46" t="n">
-        <v>16.6704592559875</v>
+        <v>20.12690396439272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.82933697304727</v>
+        <v>18.67085525145394</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.737950637462109</v>
+        <v>-1.145125584271192</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.89682835452188</v>
+        <v>0.3109231286675893</v>
       </c>
       <c r="J46" t="n">
-        <v>2.02020982639894</v>
+        <v>2.613034879589858</v>
       </c>
       <c r="K46" t="n">
-        <v>1.242406075242364</v>
+        <v>3.450157558431833</v>
       </c>
       <c r="L46" t="n">
-        <v>0.2465223191675731</v>
+        <v>0.1634549667193676</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4226671588573344</v>
+        <v>0.09149536313411689</v>
       </c>
     </row>
     <row r="47">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D8-3</t>
+          <t>D8-2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2538,31 +2538,31 @@
         <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>19.05466725896718</v>
+        <v>18.56728761050937</v>
       </c>
       <c r="F47" t="n">
-        <v>16.53158931257094</v>
+        <v>16.6704592559875</v>
       </c>
       <c r="G47" t="n">
-        <v>17.7874822362837</v>
+        <v>16.82933697304727</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.267185022683478</v>
+        <v>-1.737950637462109</v>
       </c>
       <c r="I47" t="n">
-        <v>-2.523077946396231</v>
+        <v>-1.89682835452188</v>
       </c>
       <c r="J47" t="n">
-        <v>2.490975441177572</v>
+        <v>2.02020982639894</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6161564833680124</v>
+        <v>1.242406075242364</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1778859607596519</v>
+        <v>0.2465223191675731</v>
       </c>
       <c r="M47" t="n">
-        <v>0.652406706057334</v>
+        <v>0.4226671588573344</v>
       </c>
     </row>
     <row r="48">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D8-4</t>
+          <t>D8-3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2583,30 +2583,75 @@
         <v>8</v>
       </c>
       <c r="E48" t="n">
+        <v>19.05466725896718</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16.53158931257094</v>
+      </c>
+      <c r="G48" t="n">
+        <v>17.7874822362837</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-1.267185022683478</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-2.523077946396231</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.490975441177572</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.6161564833680124</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.1778859607596519</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.652406706057334</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>D8-4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
         <v>17.65821878155358</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>16.61942010936135</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G49" t="n">
         <v>16.02372649011885</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>-1.634492291434725</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>-1.038798672192229</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J49" t="n">
         <v>2.123668172426324</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K49" t="n">
         <v>2.100435757572015</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>0.2294627421663992</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M49" t="n">
         <v>0.2331878042381634</v>
       </c>
     </row>
